--- a/MDFDatabase/MDFDatabase/models/Assessments.xlsx
+++ b/MDFDatabase/MDFDatabase/models/Assessments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwb14182\Documents\MDFDatabase\MDFDatabase\MDFDatabase\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D606D8F-7A0D-4C41-B562-36AFE4767051}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BAFE1-93E8-4943-9E30-25AE2098A3CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{616F1B7E-57DC-492A-B3EB-2B51EDB81EBB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>Module</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Class Test</t>
+  </si>
+  <si>
+    <t>PH167</t>
+  </si>
+  <si>
+    <t>Online Assessment 1</t>
   </si>
 </sst>
 </file>
@@ -132,8 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,390 +457,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B0A174-B3E4-47E9-B6C7-92486F387F3A}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>12.5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>12.5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>12.5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>56110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>56110</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>56110</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>12.5</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1">
+        <v>75</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>56110</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1">
+        <v>70</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>56110</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>56110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>56110</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
+      <c r="F19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1">
+        <v>80</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>70</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>56110</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>70</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18">
+      <c r="G20" s="1">
         <v>2</v>
       </c>
     </row>

--- a/MDFDatabase/MDFDatabase/models/Assessments.xlsx
+++ b/MDFDatabase/MDFDatabase/models/Assessments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwb14182\Documents\MDFDatabase\MDFDatabase\MDFDatabase\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BAFE1-93E8-4943-9E30-25AE2098A3CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45414165-990B-4C86-958C-ED88242A1634}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{616F1B7E-57DC-492A-B3EB-2B51EDB81EBB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <t>Module</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Online Assessment 1</t>
+  </si>
+  <si>
+    <t>EE270</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B0A174-B3E4-47E9-B6C7-92486F387F3A}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,6 +869,9 @@
       <c r="F19" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G19" s="1">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -888,6 +894,26 @@
       </c>
       <c r="G20" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/MDFDatabase/MDFDatabase/models/Assessments.xlsx
+++ b/MDFDatabase/MDFDatabase/models/Assessments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwb14182\Documents\MDFDatabase\MDFDatabase\MDFDatabase\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45414165-990B-4C86-958C-ED88242A1634}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F59FDE-4D5A-4F3D-B4F3-CA39279CCB37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{616F1B7E-57DC-492A-B3EB-2B51EDB81EBB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
   <si>
     <t>Module</t>
   </si>
@@ -106,6 +106,33 @@
   </si>
   <si>
     <t>EE270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab 1 </t>
+  </si>
+  <si>
+    <t>Lab 2</t>
+  </si>
+  <si>
+    <t>Logbook</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>EE312</t>
+  </si>
+  <si>
+    <t>Quiz 1</t>
+  </si>
+  <si>
+    <t>Quiz 2</t>
+  </si>
+  <si>
+    <t>Quiz 3</t>
+  </si>
+  <si>
+    <t>Microcontroller Demo</t>
   </si>
 </sst>
 </file>
@@ -460,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B0A174-B3E4-47E9-B6C7-92486F387F3A}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,9 +896,6 @@
       <c r="F19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="1">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -914,6 +938,212 @@
       </c>
       <c r="F21" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="1">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1">
+        <v>60</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
